--- a/Clean-Data.xlsx
+++ b/Clean-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A01339250\Documents\Programacion\Lenguajes de programacion\proyecto-lenguajes-computacionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B56A17B-9796-4CAF-B6B8-7574A777C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA82C6-188E-469F-A6D6-8C60B2053C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4972E75E-F1EC-4295-882D-15175DA60900}"/>
+    <workbookView xWindow="28800" yWindow="2175" windowWidth="21600" windowHeight="12750" xr2:uid="{4972E75E-F1EC-4295-882D-15175DA60900}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10A408-6772-410C-A056-D4A4C053952D}">
-  <dimension ref="A1:D5121"/>
+  <dimension ref="A1:Z5121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G16" sqref="G16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,7 +427,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -441,7 +441,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -468,8 +468,69 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="array" ref="G5:Z7">TRANSPOSE(A2:C21)</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -482,8 +543,68 @@
       <c r="D6">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>5.9</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J6">
+        <v>5.3</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>6.5</v>
+      </c>
+      <c r="M6">
+        <v>5.9</v>
+      </c>
+      <c r="N6">
+        <v>6.6</v>
+      </c>
+      <c r="O6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P6">
+        <v>5.5</v>
+      </c>
+      <c r="Q6">
+        <v>6.4</v>
+      </c>
+      <c r="R6">
+        <v>6.6</v>
+      </c>
+      <c r="S6">
+        <v>7.7</v>
+      </c>
+      <c r="T6">
+        <v>7.8</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5.6</v>
+      </c>
+      <c r="W6">
+        <v>5.6</v>
+      </c>
+      <c r="X6">
+        <v>5.4</v>
+      </c>
+      <c r="Y6">
+        <v>7.4</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -496,8 +617,68 @@
       <c r="D7">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>21</v>
+      </c>
+      <c r="N7">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>22</v>
+      </c>
+      <c r="P7">
+        <v>22</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+      <c r="R7">
+        <v>22</v>
+      </c>
+      <c r="S7">
+        <v>22</v>
+      </c>
+      <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>24</v>
+      </c>
+      <c r="W7">
+        <v>24</v>
+      </c>
+      <c r="X7">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>26</v>
+      </c>
+      <c r="Z7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -511,7 +692,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -525,7 +706,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -538,8 +719,18 @@
       <c r="D10">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="array" ref="G10:I12">MMULT(G5:Z7,A2:C21)</f>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>126.5</v>
+      </c>
+      <c r="I10">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -552,8 +743,17 @@
       <c r="D11">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>126.5</v>
+      </c>
+      <c r="H11">
+        <v>821.31000000000006</v>
+      </c>
+      <c r="I11">
+        <v>2552.6000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -566,8 +766,17 @@
       <c r="D12">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>402</v>
+      </c>
+      <c r="H12">
+        <v>2552.6000000000004</v>
+      </c>
+      <c r="I12">
+        <v>8614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -581,7 +790,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -594,8 +803,18 @@
       <c r="D14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="array" ref="G14:I16">MINVERSE(G10:I12)</f>
+        <v>2.491915415733073</v>
+      </c>
+      <c r="H14">
+        <v>-0.28318712992778283</v>
+      </c>
+      <c r="I14">
+        <v>-3.2375961141285894E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -608,8 +827,17 @@
       <c r="D15">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>-0.28318712992778255</v>
+      </c>
+      <c r="H15">
+        <v>4.7591778444490529E-2</v>
+      </c>
+      <c r="I15">
+        <v>-8.8710789719502491E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -622,8 +850,17 @@
       <c r="D16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>-3.2375961141285978E-2</v>
+      </c>
+      <c r="H16">
+        <v>-8.8710789719501212E-4</v>
+      </c>
+      <c r="I16">
+        <v>1.8898964473156434E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -637,7 +874,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -651,7 +888,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -665,7 +902,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -678,8 +915,12 @@
       <c r="D20">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="array" ref="G20:G22">MMULT(G5:Z7,D2:D21)</f>
+        <v>13.700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -692,8 +933,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>89.224999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -706,8 +950,11 @@
       <c r="D22">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>271.83999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -721,7 +968,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -735,7 +982,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -748,8 +995,12 @@
       <c r="D25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="array" ref="G25:G27">MMULT(G14:I16,G20:G22)</f>
+        <v>7.0788251089521026E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -762,8 +1013,11 @@
       <c r="D26">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0.12556134092554982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -776,8 +1030,11 @@
       <c r="D27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>-8.9534195245584147E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -791,7 +1048,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -805,7 +1062,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -819,7 +1076,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -833,7 +1090,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
